--- a/9_tables/tables.xlsx
+++ b/9_tables/tables.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanryals/Documents/Harvard/Farrell_Lab/Varroa_Project/final_pub/figures/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanryals/Documents/Harvard/Farrell_Lab/Varroa_Project/final_pub/repository/9_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A340D4F-64CB-B640-A929-953A540AE806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C550EB-CFBF-FD4A-A6CE-953BF17E9588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19980" windowHeight="14280" activeTab="1" xr2:uid="{CA69EF31-D263-EF48-967A-810C4BBFDC2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19980" windowHeight="14280" xr2:uid="{CA69EF31-D263-EF48-967A-810C4BBFDC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="genetic" sheetId="1" r:id="rId1"/>
     <sheet name="samples" sheetId="2" r:id="rId2"/>
     <sheet name="fastsimcoal" sheetId="3" r:id="rId3"/>
     <sheet name="het" sheetId="4" r:id="rId4"/>
+    <sheet name="supplementary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,11 +40,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={AB771EC6-24FE-9E40-B0FC-E9BAD6822706}</author>
-    <author>tc={171CDC1B-E93C-5A47-A4EA-C4640BE10922}</author>
+    <author>tc={298B1CCC-840F-8841-AF1B-70B8BA9EB243}</author>
+    <author>tc={03490BE7-0860-3E48-9D5B-72B20044249B}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{AB771EC6-24FE-9E40-B0FC-E9BAD6822706}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{298B1CCC-840F-8841-AF1B-70B8BA9EB243}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +52,7 @@
     theta_w: number of segregating sites in ea population</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{171CDC1B-E93C-5A47-A4EA-C4640BE10922}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{03490BE7-0860-3E48-9D5B-72B20044249B}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
   <si>
     <t>region</t>
   </si>
@@ -373,13 +374,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -730,32 +737,31 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2021-07-21T18:41:22.42" personId="{CFB17575-96E1-EF45-94AA-F4782D6B5F0C}" id="{AB771EC6-24FE-9E40-B0FC-E9BAD6822706}">
+  <threadedComment ref="C1" dT="2021-07-21T18:41:22.42" personId="{CFB17575-96E1-EF45-94AA-F4782D6B5F0C}" id="{298B1CCC-840F-8841-AF1B-70B8BA9EB243}">
     <text>theta_w: number of segregating sites in ea population</text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2021-07-21T18:41:04.45" personId="{CFB17575-96E1-EF45-94AA-F4782D6B5F0C}" id="{171CDC1B-E93C-5A47-A4EA-C4640BE10922}">
+  <threadedComment ref="D1" dT="2021-07-21T18:41:04.45" personId="{CFB17575-96E1-EF45-94AA-F4782D6B5F0C}" id="{03490BE7-0860-3E48-9D5B-72B20044249B}">
     <text xml:space="preserve">theta_p: average number of pairwise differences </text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9989FC81-AD16-454E-8E2F-EBBD8B04C9B3}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9989FC81-AD16-454E-8E2F-EBBD8B04C9B3}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -763,19 +769,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -783,53 +783,35 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -837,36 +819,24 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -874,36 +844,24 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -911,55 +869,36 @@
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -967,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE36C75-1448-9245-B55F-E8A8285EF855}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1509,4 +1448,156 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EDC1EC-6DB8-E845-9F74-E6B3F64A0F87}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/9_tables/tables.xlsx
+++ b/9_tables/tables.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanryals/Documents/Harvard/Farrell_Lab/Varroa_Project/final_pub/repository/9_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C550EB-CFBF-FD4A-A6CE-953BF17E9588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF126006-1381-744E-A953-B02CCCD2308D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19980" windowHeight="14280" xr2:uid="{CA69EF31-D263-EF48-967A-810C4BBFDC2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19980" windowHeight="14280" activeTab="3" xr2:uid="{CA69EF31-D263-EF48-967A-810C4BBFDC2C}"/>
   </bookViews>
   <sheets>
-    <sheet name="genetic" sheetId="1" r:id="rId1"/>
-    <sheet name="samples" sheetId="2" r:id="rId2"/>
-    <sheet name="fastsimcoal" sheetId="3" r:id="rId3"/>
-    <sheet name="het" sheetId="4" r:id="rId4"/>
+    <sheet name="Table 1 (heterozygosity)" sheetId="4" r:id="rId1"/>
+    <sheet name="Table 2 (summary stats)" sheetId="1" r:id="rId2"/>
+    <sheet name="Table 3 (fastsimcoal)" sheetId="3" r:id="rId3"/>
+    <sheet name="Table 4 (sample distribution)" sheetId="2" r:id="rId4"/>
     <sheet name="supplementary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -374,19 +374,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -747,10 +741,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EE829F-29B7-E54E-A8C2-04D251602374}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9989FC81-AD16-454E-8E2F-EBBD8B04C9B3}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -895,208 +1046,6 @@
       </c>
       <c r="D11" t="s">
         <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE36C75-1448-9245-B55F-E8A8285EF855}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2">
-        <v>75</v>
-      </c>
-      <c r="D2">
-        <v>69</v>
-      </c>
-      <c r="E2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>48</v>
-      </c>
-      <c r="D3">
-        <v>44</v>
-      </c>
-      <c r="E3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>41</v>
-      </c>
-      <c r="D6">
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>44</v>
-      </c>
-      <c r="D7">
-        <v>42</v>
-      </c>
-      <c r="E7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>147</v>
-      </c>
-      <c r="D8">
-        <v>87</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <f>SUM(C2:C10)</f>
-        <v>456</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ref="D11:E11" si="0">SUM(D2:D10)</f>
-        <v>363</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1294,19 +1243,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EE829F-29B7-E54E-A8C2-04D251602374}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE36C75-1448-9245-B55F-E8A8285EF855}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1314,135 +1260,183 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>75</v>
+      </c>
+      <c r="D2">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>147</v>
+      </c>
+      <c r="D8">
+        <v>87</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>98</v>
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>456</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:E11" si="0">SUM(D2:D10)</f>
+        <v>363</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
